--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remy\Documents\GitHub\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{53E85CA2-8257-449D-86C0-9C7038DF1727}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A02D6472-85C3-41C4-8AD6-4C86CC59B5C2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2775" yWindow="1560" windowWidth="28035" windowHeight="17445" xr2:uid="{4DCDC786-B4F5-3842-838A-FD9CE20DE2DE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>April</t>
   </si>
@@ -75,30 +75,9 @@
     <t>Analysis and comparison of existing approaches</t>
   </si>
   <si>
-    <t>Defining the approach</t>
-  </si>
-  <si>
-    <t>3. Implementing model</t>
-  </si>
-  <si>
     <t>Translating the model definition to code</t>
   </si>
   <si>
-    <t>Define ways to prompt for, analyze and store user input</t>
-  </si>
-  <si>
-    <t>Fix bugs</t>
-  </si>
-  <si>
-    <t>4. Model analysis</t>
-  </si>
-  <si>
-    <t>Analyze model results and errors</t>
-  </si>
-  <si>
-    <t>Finalize literature study (D1) &amp; Plan for full thesis project (D2)</t>
-  </si>
-  <si>
     <t>5. Final reporting</t>
   </si>
   <si>
@@ -114,40 +93,64 @@
     <t>P</t>
   </si>
   <si>
-    <t>D1/2</t>
-  </si>
-  <si>
     <t>Nov.</t>
   </si>
   <si>
-    <t>Writing possible third draft</t>
-  </si>
-  <si>
     <t>Requirements analysis</t>
   </si>
   <si>
     <t>2. Initial extended model design</t>
   </si>
   <si>
-    <t>Quantifying user values</t>
-  </si>
-  <si>
-    <t>Manual tweaking</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>Performance reporting</t>
-  </si>
-  <si>
-    <t>Rewriting and/or combining existing implementations</t>
-  </si>
-  <si>
-    <t>Extending model with user values</t>
-  </si>
-  <si>
     <t>Dec</t>
+  </si>
+  <si>
+    <t>Writing possible  draft</t>
+  </si>
+  <si>
+    <t>HOLIDAY</t>
+  </si>
+  <si>
+    <t>SURGERY AND RECOVERY</t>
+  </si>
+  <si>
+    <t>Feasibility analysis</t>
+  </si>
+  <si>
+    <t>Combine papers for basis model</t>
+  </si>
+  <si>
+    <t>Defining the initial approach</t>
+  </si>
+  <si>
+    <t>Rewriting ML activity clustering</t>
+  </si>
+  <si>
+    <t>Connecting user values to activities</t>
+  </si>
+  <si>
+    <t>Combining clustering with user values</t>
+  </si>
+  <si>
+    <t>Obtain sample data for user values (+ crowdsourcing)</t>
+  </si>
+  <si>
+    <t>3. Implementing conceptual model</t>
+  </si>
+  <si>
+    <t>Statistical analysis and manual improvement</t>
+  </si>
+  <si>
+    <t>4. Usability extension</t>
+  </si>
+  <si>
+    <t>Write middleware between activity logs and model</t>
+  </si>
+  <si>
+    <t>Implement or combine with UI for user input</t>
+  </si>
+  <si>
+    <t>User testing</t>
   </si>
 </sst>
 </file>
@@ -194,7 +197,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -220,11 +223,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray0625"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray0625">
-        <bgColor theme="2"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="16">
@@ -443,19 +441,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -472,12 +464,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
@@ -488,17 +476,47 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -816,77 +834,81 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AJ30"/>
+  <dimension ref="A1:AM30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AK6" sqref="AK6"/>
+      <selection activeCell="AM22" sqref="AM22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="32" width="3.125" bestFit="1" customWidth="1"/>
-    <col min="33" max="35" width="3.125" customWidth="1"/>
-    <col min="36" max="36" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="30" width="3.125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="3.125" customWidth="1"/>
+    <col min="32" max="32" width="3.125" bestFit="1" customWidth="1"/>
+    <col min="33" max="39" width="3.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42" t="s">
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42" t="s">
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42" t="s">
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42" t="s">
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="42" t="s">
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="42"/>
-      <c r="AD1" s="42"/>
-      <c r="AE1" s="42"/>
-      <c r="AF1" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="42"/>
-      <c r="AH1" s="42"/>
-      <c r="AI1" s="42"/>
-      <c r="AJ1" s="53" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="50"/>
+      <c r="AI1" s="50"/>
+      <c r="AJ1" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK1" s="50"/>
+      <c r="AL1" s="50"/>
+      <c r="AM1" s="50"/>
+    </row>
+    <row r="2" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -995,8 +1017,17 @@
       <c r="AJ2" s="3">
         <v>49</v>
       </c>
-    </row>
-    <row r="3" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AK2" s="36">
+        <v>50</v>
+      </c>
+      <c r="AL2" s="36">
+        <v>51</v>
+      </c>
+      <c r="AM2" s="36">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
@@ -1105,8 +1136,17 @@
       <c r="AJ3" s="3">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK3" s="36">
+        <v>36</v>
+      </c>
+      <c r="AL3" s="36">
+        <v>37</v>
+      </c>
+      <c r="AM3" s="36">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
@@ -1114,38 +1154,45 @@
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="29"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="28"/>
-      <c r="X4" s="28"/>
-      <c r="Y4" s="20"/>
-      <c r="Z4" s="27"/>
-      <c r="AA4" s="29"/>
-      <c r="AB4" s="28"/>
-      <c r="AC4" s="28"/>
-      <c r="AD4" s="28"/>
-      <c r="AE4" s="28"/>
-      <c r="AF4" s="29"/>
-      <c r="AG4" s="28"/>
-      <c r="AJ4" s="29"/>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+      <c r="F4" s="22"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="53"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="61"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="23"/>
+      <c r="AC4" s="24"/>
+      <c r="AD4" s="23"/>
+      <c r="AE4" s="24"/>
+      <c r="AF4" s="23"/>
+      <c r="AG4" s="23"/>
+      <c r="AH4" s="23"/>
+      <c r="AI4" s="23"/>
+      <c r="AJ4" s="24"/>
+      <c r="AM4" s="24"/>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="12"/>
@@ -1154,36 +1201,39 @@
       <c r="E5" s="15"/>
       <c r="F5" s="16"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="23"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="55"/>
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="15"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="13"/>
       <c r="Q5" s="13"/>
       <c r="R5" s="13"/>
       <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="13"/>
       <c r="V5" s="13"/>
       <c r="W5" s="13"/>
       <c r="X5" s="13"/>
-      <c r="Y5" s="22"/>
+      <c r="Y5" s="32"/>
       <c r="Z5" s="16"/>
-      <c r="AA5" s="15"/>
+      <c r="AA5" s="13"/>
       <c r="AB5" s="13"/>
-      <c r="AC5" s="13"/>
+      <c r="AC5" s="15"/>
       <c r="AD5" s="13"/>
-      <c r="AE5" s="13"/>
-      <c r="AF5" s="15"/>
+      <c r="AE5" s="15"/>
+      <c r="AF5" s="13"/>
       <c r="AG5" s="13"/>
+      <c r="AH5" s="13"/>
+      <c r="AI5" s="13"/>
       <c r="AJ5" s="15"/>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+      <c r="AM5" s="15"/>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="12"/>
@@ -1192,36 +1242,39 @@
       <c r="E6" s="15"/>
       <c r="F6" s="16"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="23"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="55"/>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="15"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="13"/>
       <c r="Q6" s="13"/>
       <c r="R6" s="13"/>
       <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="13"/>
       <c r="V6" s="13"/>
       <c r="W6" s="13"/>
       <c r="X6" s="13"/>
-      <c r="Y6" s="22"/>
+      <c r="Y6" s="32"/>
       <c r="Z6" s="16"/>
-      <c r="AA6" s="15"/>
+      <c r="AA6" s="13"/>
       <c r="AB6" s="13"/>
-      <c r="AC6" s="13"/>
+      <c r="AC6" s="15"/>
       <c r="AD6" s="13"/>
-      <c r="AE6" s="13"/>
-      <c r="AF6" s="15"/>
+      <c r="AE6" s="15"/>
+      <c r="AF6" s="13"/>
       <c r="AG6" s="13"/>
+      <c r="AH6" s="13"/>
+      <c r="AI6" s="13"/>
       <c r="AJ6" s="15"/>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
+      <c r="AM6" s="15"/>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="13"/>
@@ -1230,111 +1283,120 @@
       <c r="E7" s="17"/>
       <c r="F7" s="16"/>
       <c r="G7" s="13"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="23"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="55"/>
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="15"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="13"/>
       <c r="Q7" s="13"/>
       <c r="R7" s="13"/>
       <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="13"/>
       <c r="V7" s="13"/>
       <c r="W7" s="13"/>
       <c r="X7" s="13"/>
-      <c r="Y7" s="22"/>
+      <c r="Y7" s="32"/>
       <c r="Z7" s="16"/>
-      <c r="AA7" s="15"/>
+      <c r="AA7" s="13"/>
       <c r="AB7" s="13"/>
-      <c r="AC7" s="13"/>
+      <c r="AC7" s="15"/>
       <c r="AD7" s="13"/>
-      <c r="AE7" s="13"/>
-      <c r="AF7" s="15"/>
+      <c r="AE7" s="15"/>
+      <c r="AF7" s="13"/>
       <c r="AG7" s="13"/>
+      <c r="AH7" s="13"/>
+      <c r="AI7" s="13"/>
       <c r="AJ7" s="15"/>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+      <c r="AM7" s="15"/>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="47"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="39"/>
       <c r="G8" s="13"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="23"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="55"/>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="15"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="13"/>
       <c r="Q8" s="13"/>
       <c r="R8" s="13"/>
       <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="13"/>
       <c r="V8" s="13"/>
       <c r="W8" s="13"/>
       <c r="X8" s="13"/>
-      <c r="Y8" s="22"/>
+      <c r="Y8" s="32"/>
       <c r="Z8" s="16"/>
-      <c r="AA8" s="15"/>
+      <c r="AA8" s="13"/>
       <c r="AB8" s="13"/>
-      <c r="AC8" s="13"/>
+      <c r="AC8" s="15"/>
       <c r="AD8" s="13"/>
-      <c r="AE8" s="13"/>
-      <c r="AF8" s="15"/>
+      <c r="AE8" s="15"/>
+      <c r="AF8" s="13"/>
       <c r="AG8" s="13"/>
+      <c r="AH8" s="13"/>
+      <c r="AI8" s="13"/>
       <c r="AJ8" s="15"/>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
-        <v>31</v>
+      <c r="AM8" s="15"/>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>26</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
-      <c r="E9" s="37"/>
+      <c r="E9" s="31"/>
       <c r="F9" s="14"/>
       <c r="G9" s="12"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="23"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="55"/>
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="15"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="13"/>
       <c r="V9" s="13"/>
       <c r="W9" s="13"/>
       <c r="X9" s="13"/>
-      <c r="Y9" s="22"/>
+      <c r="Y9" s="32"/>
       <c r="Z9" s="16"/>
-      <c r="AA9" s="15"/>
+      <c r="AA9" s="13"/>
       <c r="AB9" s="13"/>
-      <c r="AC9" s="13"/>
+      <c r="AC9" s="15"/>
       <c r="AD9" s="13"/>
-      <c r="AE9" s="13"/>
-      <c r="AF9" s="15"/>
+      <c r="AE9" s="15"/>
+      <c r="AF9" s="13"/>
       <c r="AG9" s="13"/>
+      <c r="AH9" s="13"/>
+      <c r="AI9" s="13"/>
       <c r="AJ9" s="15"/>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM9" s="15"/>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>14</v>
       </c>
@@ -1344,75 +1406,81 @@
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="23"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="55"/>
       <c r="J10" s="9"/>
       <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="15"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="13"/>
       <c r="V10" s="13"/>
       <c r="W10" s="13"/>
       <c r="X10" s="13"/>
-      <c r="Y10" s="22"/>
+      <c r="Y10" s="32"/>
       <c r="Z10" s="16"/>
-      <c r="AA10" s="15"/>
+      <c r="AA10" s="13"/>
       <c r="AB10" s="13"/>
-      <c r="AC10" s="13"/>
+      <c r="AC10" s="15"/>
       <c r="AD10" s="13"/>
-      <c r="AE10" s="13"/>
-      <c r="AF10" s="15"/>
+      <c r="AE10" s="15"/>
+      <c r="AF10" s="13"/>
       <c r="AG10" s="13"/>
+      <c r="AH10" s="13"/>
+      <c r="AI10" s="13"/>
       <c r="AJ10" s="15"/>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
+      <c r="AM10" s="15"/>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="55"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="23"/>
       <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="13"/>
       <c r="V11" s="13"/>
       <c r="W11" s="13"/>
       <c r="X11" s="13"/>
-      <c r="Y11" s="38"/>
+      <c r="Y11" s="32"/>
       <c r="Z11" s="16"/>
-      <c r="AA11" s="15"/>
+      <c r="AA11" s="13"/>
       <c r="AB11" s="13"/>
-      <c r="AC11" s="13"/>
+      <c r="AC11" s="15"/>
       <c r="AD11" s="13"/>
-      <c r="AE11" s="13"/>
-      <c r="AF11" s="15"/>
+      <c r="AE11" s="15"/>
+      <c r="AF11" s="13"/>
       <c r="AG11" s="13"/>
+      <c r="AH11" s="13"/>
+      <c r="AI11" s="13"/>
       <c r="AJ11" s="15"/>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
-        <v>32</v>
+      <c r="AM11" s="15"/>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
+        <v>23</v>
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -1420,37 +1488,40 @@
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="15"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="23"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="55"/>
       <c r="J12" s="13"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="21"/>
       <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="13"/>
       <c r="V12" s="13"/>
       <c r="W12" s="13"/>
       <c r="X12" s="13"/>
-      <c r="Y12" s="38"/>
+      <c r="Y12" s="32"/>
       <c r="Z12" s="16"/>
-      <c r="AA12" s="15"/>
+      <c r="AA12" s="13"/>
       <c r="AB12" s="13"/>
-      <c r="AC12" s="13"/>
+      <c r="AC12" s="15"/>
       <c r="AD12" s="13"/>
-      <c r="AE12" s="13"/>
-      <c r="AF12" s="15"/>
+      <c r="AE12" s="15"/>
+      <c r="AF12" s="13"/>
       <c r="AG12" s="13"/>
+      <c r="AH12" s="13"/>
+      <c r="AI12" s="13"/>
       <c r="AJ12" s="15"/>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
-        <v>34</v>
+      <c r="AM12" s="15"/>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>29</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -1458,75 +1529,79 @@
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="15"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="23"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="55"/>
       <c r="J13" s="13"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="15"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="13"/>
       <c r="V13" s="13"/>
       <c r="W13" s="13"/>
       <c r="X13" s="13"/>
-      <c r="Y13" s="38"/>
+      <c r="Y13" s="32"/>
       <c r="Z13" s="16"/>
-      <c r="AA13" s="15"/>
+      <c r="AA13" s="13"/>
       <c r="AB13" s="13"/>
-      <c r="AC13" s="13"/>
+      <c r="AC13" s="15"/>
       <c r="AD13" s="13"/>
-      <c r="AE13" s="13"/>
-      <c r="AF13" s="15"/>
+      <c r="AE13" s="15"/>
+      <c r="AF13" s="13"/>
       <c r="AG13" s="13"/>
+      <c r="AH13" s="13"/>
+      <c r="AI13" s="13"/>
       <c r="AJ13" s="15"/>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
-        <v>23</v>
+      <c r="AM13" s="15"/>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
+        <v>30</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
       <c r="F14" s="19"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="50"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="34"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="42"/>
+      <c r="S14" s="43"/>
+      <c r="T14" s="43"/>
+      <c r="U14" s="13"/>
       <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="38"/>
-      <c r="Z14" s="16"/>
-      <c r="AA14" s="15"/>
-      <c r="AB14" s="13"/>
-      <c r="AC14" s="13"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="32"/>
+      <c r="Z14" s="18"/>
+      <c r="AA14" s="19"/>
+      <c r="AB14" s="19"/>
+      <c r="AC14" s="28"/>
       <c r="AD14" s="13"/>
-      <c r="AE14" s="13"/>
-      <c r="AF14" s="15"/>
+      <c r="AE14" s="15"/>
+      <c r="AF14" s="13"/>
       <c r="AG14" s="13"/>
+      <c r="AH14" s="13"/>
+      <c r="AI14" s="13"/>
       <c r="AJ14" s="15"/>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AM14" s="15"/>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -1534,37 +1609,40 @@
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="23"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="55"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="11"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="10"/>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
+      <c r="S15" s="11"/>
       <c r="T15" s="10"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="22"/>
-      <c r="Z15" s="16"/>
-      <c r="AA15" s="15"/>
-      <c r="AB15" s="13"/>
-      <c r="AC15" s="13"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="32"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="11"/>
       <c r="AD15" s="13"/>
-      <c r="AE15" s="13"/>
-      <c r="AF15" s="15"/>
+      <c r="AE15" s="15"/>
+      <c r="AF15" s="13"/>
       <c r="AG15" s="13"/>
+      <c r="AH15" s="13"/>
+      <c r="AI15" s="13"/>
       <c r="AJ15" s="15"/>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
-        <v>16</v>
+      <c r="AM15" s="15"/>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
+        <v>31</v>
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -1572,33 +1650,36 @@
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="23"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="55"/>
       <c r="J16" s="13"/>
       <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="15"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="13"/>
+      <c r="T16" s="12"/>
       <c r="V16" s="13"/>
       <c r="W16" s="13"/>
       <c r="X16" s="13"/>
-      <c r="Y16" s="22"/>
+      <c r="Y16" s="32"/>
       <c r="Z16" s="16"/>
-      <c r="AA16" s="15"/>
+      <c r="AA16" s="13"/>
       <c r="AB16" s="13"/>
-      <c r="AC16" s="13"/>
+      <c r="AC16" s="15"/>
       <c r="AD16" s="13"/>
-      <c r="AE16" s="13"/>
-      <c r="AF16" s="15"/>
+      <c r="AE16" s="15"/>
+      <c r="AF16" s="13"/>
       <c r="AG16" s="13"/>
+      <c r="AH16" s="13"/>
+      <c r="AI16" s="13"/>
       <c r="AJ16" s="15"/>
-    </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
-        <v>38</v>
+      <c r="AM16" s="15"/>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A17" s="26" t="s">
+        <v>32</v>
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -1606,33 +1687,36 @@
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="23"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="55"/>
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="22"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="13"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="32"/>
       <c r="Z17" s="16"/>
-      <c r="AA17" s="15"/>
+      <c r="AA17" s="13"/>
       <c r="AB17" s="13"/>
-      <c r="AC17" s="13"/>
+      <c r="AC17" s="15"/>
       <c r="AD17" s="13"/>
-      <c r="AE17" s="13"/>
-      <c r="AF17" s="15"/>
+      <c r="AE17" s="15"/>
+      <c r="AF17" s="13"/>
       <c r="AG17" s="13"/>
+      <c r="AH17" s="13"/>
+      <c r="AI17" s="13"/>
       <c r="AJ17" s="15"/>
-    </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
-        <v>39</v>
+      <c r="AM17" s="15"/>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
+        <v>33</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -1640,262 +1724,269 @@
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="23"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="55"/>
       <c r="J18" s="13"/>
       <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="57"/>
-      <c r="V18" s="26"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="22"/>
-      <c r="Z18" s="18"/>
-      <c r="AA18" s="34"/>
-      <c r="AB18" s="13"/>
-      <c r="AC18" s="13"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="32"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="19"/>
+      <c r="AB18" s="19"/>
+      <c r="AC18" s="15"/>
       <c r="AD18" s="13"/>
-      <c r="AE18" s="13"/>
-      <c r="AF18" s="15"/>
+      <c r="AE18" s="15"/>
+      <c r="AF18" s="13"/>
       <c r="AG18" s="13"/>
+      <c r="AH18" s="13"/>
+      <c r="AI18" s="13"/>
       <c r="AJ18" s="15"/>
-    </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="10"/>
-      <c r="X19" s="10"/>
-      <c r="Y19" s="22"/>
-      <c r="Z19" s="9"/>
-      <c r="AA19" s="11"/>
-      <c r="AB19" s="13"/>
-      <c r="AC19" s="13"/>
+      <c r="AM18" s="15"/>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A19" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="Y19" s="32"/>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="62"/>
+      <c r="AB19" s="63"/>
+      <c r="AC19" s="17"/>
       <c r="AD19" s="13"/>
-      <c r="AE19" s="13"/>
-      <c r="AF19" s="15"/>
+      <c r="AE19" s="15"/>
+      <c r="AF19" s="13"/>
       <c r="AG19" s="13"/>
+      <c r="AH19" s="13"/>
+      <c r="AI19" s="13"/>
       <c r="AJ19" s="15"/>
-    </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A20" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="26"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="58"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="12"/>
-      <c r="X20" s="12"/>
-      <c r="Y20" s="22"/>
-      <c r="Z20" s="16"/>
-      <c r="AA20" s="15"/>
-      <c r="AB20" s="13"/>
-      <c r="AC20" s="13"/>
-      <c r="AD20" s="13"/>
-      <c r="AE20" s="13"/>
-      <c r="AF20" s="15"/>
+      <c r="AM19" s="15"/>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="Y20" s="32"/>
+      <c r="AA20" s="12"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="47"/>
+      <c r="AD20" s="19"/>
+      <c r="AE20" s="28"/>
+      <c r="AF20" s="13"/>
       <c r="AG20" s="13"/>
+      <c r="AH20" s="13"/>
+      <c r="AI20" s="13"/>
       <c r="AJ20" s="15"/>
-    </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A21" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="33"/>
-      <c r="V21" s="26"/>
-      <c r="W21" s="12"/>
-      <c r="X21" s="12"/>
-      <c r="Y21" s="22"/>
-      <c r="Z21" s="14"/>
-      <c r="AA21" s="15"/>
-      <c r="AB21" s="13"/>
-      <c r="AC21" s="13"/>
-      <c r="AD21" s="13"/>
-      <c r="AE21" s="13"/>
-      <c r="AF21" s="15"/>
+      <c r="AM20" s="15"/>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="55"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="32"/>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="10"/>
+      <c r="AE21" s="11"/>
+      <c r="AF21" s="13"/>
       <c r="AG21" s="13"/>
+      <c r="AH21" s="13"/>
+      <c r="AI21" s="13"/>
       <c r="AJ21" s="15"/>
-    </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A22" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="34"/>
-      <c r="U22" s="32"/>
-      <c r="V22" s="13"/>
-      <c r="W22" s="26"/>
-      <c r="X22" s="26"/>
-      <c r="Y22" s="22"/>
+      <c r="AM21" s="15"/>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A22" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="55"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="62"/>
+      <c r="X22" s="63"/>
+      <c r="Y22" s="32"/>
       <c r="Z22" s="14"/>
-      <c r="AA22" s="56"/>
-      <c r="AB22" s="13"/>
-      <c r="AC22" s="13"/>
-      <c r="AD22" s="13"/>
-      <c r="AE22" s="19"/>
-      <c r="AF22" s="34"/>
+      <c r="AA22" s="62"/>
+      <c r="AB22" s="63"/>
+      <c r="AC22" s="12"/>
+      <c r="AD22" s="12"/>
+      <c r="AE22" s="15"/>
+      <c r="AF22" s="13"/>
       <c r="AG22" s="13"/>
       <c r="AH22" s="13"/>
+      <c r="AI22" s="13"/>
       <c r="AJ22" s="15"/>
-    </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="59"/>
-      <c r="V23" s="10"/>
-      <c r="W23" s="10"/>
-      <c r="X23" s="10"/>
-      <c r="Y23" s="22"/>
-      <c r="Z23" s="9"/>
-      <c r="AA23" s="10"/>
-      <c r="AB23" s="10"/>
-      <c r="AC23" s="10"/>
-      <c r="AD23" s="10"/>
-      <c r="AE23" s="46"/>
-      <c r="AF23" s="11"/>
+      <c r="AM22" s="15"/>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="59"/>
+      <c r="N23" s="59"/>
+      <c r="O23" s="55"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="19"/>
+      <c r="W23" s="13"/>
+      <c r="X23" s="28"/>
+      <c r="Y23" s="20"/>
+      <c r="Z23" s="18"/>
+      <c r="AA23" s="13"/>
+      <c r="AB23" s="21"/>
+      <c r="AC23" s="21"/>
+      <c r="AD23" s="12"/>
+      <c r="AE23" s="47"/>
+      <c r="AF23" s="13"/>
       <c r="AG23" s="13"/>
       <c r="AH23" s="13"/>
-      <c r="AJ23" s="15"/>
-    </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A24" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="15"/>
-      <c r="U24" s="58"/>
-      <c r="V24" s="13"/>
-      <c r="W24" s="13"/>
-      <c r="X24" s="13"/>
-      <c r="Y24" s="38"/>
-      <c r="AB24" s="14"/>
-      <c r="AC24" s="12"/>
-      <c r="AD24" s="12"/>
-      <c r="AE24" s="12"/>
-      <c r="AF24" s="15"/>
-      <c r="AG24" s="13"/>
-      <c r="AH24" s="13"/>
-      <c r="AJ24" s="15"/>
-    </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A25" s="33" t="s">
-        <v>35</v>
+      <c r="AI23" s="19"/>
+      <c r="AJ23" s="28"/>
+      <c r="AK23" s="13"/>
+      <c r="AM23" s="15"/>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="55"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="32"/>
+      <c r="Z24" s="9"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10"/>
+      <c r="AC24" s="10"/>
+      <c r="AD24" s="10"/>
+      <c r="AE24" s="10"/>
+      <c r="AF24" s="10"/>
+      <c r="AG24" s="10"/>
+      <c r="AH24" s="10"/>
+      <c r="AI24" s="10"/>
+      <c r="AJ24" s="11"/>
+      <c r="AK24" s="13"/>
+      <c r="AM24" s="15"/>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A25" s="29" t="s">
+        <v>39</v>
       </c>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -1903,37 +1994,39 @@
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="23"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="55"/>
       <c r="J25" s="13"/>
       <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="59"/>
+      <c r="N25" s="59"/>
+      <c r="O25" s="55"/>
       <c r="P25" s="13"/>
       <c r="Q25" s="13"/>
       <c r="R25" s="13"/>
       <c r="S25" s="13"/>
-      <c r="T25" s="15"/>
-      <c r="U25" s="31"/>
-      <c r="V25" s="18"/>
-      <c r="W25" s="19"/>
-      <c r="X25" s="19"/>
-      <c r="Y25" s="39"/>
-      <c r="Z25" s="19"/>
-      <c r="AA25" s="19"/>
-      <c r="AB25" s="19"/>
-      <c r="AC25" s="30"/>
-      <c r="AD25" s="12"/>
-      <c r="AE25" s="12"/>
-      <c r="AF25" s="15"/>
-      <c r="AG25" s="13"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="13"/>
+      <c r="V25" s="13"/>
+      <c r="W25" s="13"/>
+      <c r="X25" s="15"/>
+      <c r="Y25" s="32"/>
+      <c r="Z25" s="22"/>
+      <c r="AA25" s="13"/>
+      <c r="AB25" s="13"/>
+      <c r="AC25" s="13"/>
+      <c r="AF25" s="14"/>
+      <c r="AG25" s="12"/>
+      <c r="AH25" s="23"/>
+      <c r="AI25" s="13"/>
       <c r="AJ25" s="15"/>
-    </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A26" s="33" t="s">
-        <v>36</v>
+      <c r="AK25" s="13"/>
+      <c r="AM25" s="15"/>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A26" s="27" t="s">
+        <v>40</v>
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -1941,37 +2034,40 @@
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="23"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="55"/>
       <c r="J26" s="13"/>
       <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="59"/>
+      <c r="N26" s="59"/>
+      <c r="O26" s="55"/>
       <c r="P26" s="13"/>
       <c r="Q26" s="13"/>
       <c r="R26" s="13"/>
       <c r="S26" s="13"/>
-      <c r="T26" s="15"/>
-      <c r="U26" s="60"/>
-      <c r="V26" s="61"/>
-      <c r="W26" s="62"/>
-      <c r="X26" s="62"/>
-      <c r="Y26" s="63"/>
-      <c r="Z26" s="62"/>
-      <c r="AA26" s="62"/>
-      <c r="AB26" s="62"/>
-      <c r="AC26" s="62"/>
-      <c r="AD26" s="30"/>
-      <c r="AE26" s="12"/>
-      <c r="AF26" s="15"/>
-      <c r="AG26" s="13"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="13"/>
+      <c r="W26" s="13"/>
+      <c r="X26" s="15"/>
+      <c r="Y26" s="32"/>
+      <c r="Z26" s="16"/>
+      <c r="AA26" s="19"/>
+      <c r="AB26" s="19"/>
+      <c r="AC26" s="19"/>
+      <c r="AD26" s="19"/>
+      <c r="AE26" s="19"/>
+      <c r="AF26" s="19"/>
+      <c r="AG26" s="19"/>
+      <c r="AH26" s="12"/>
+      <c r="AI26" s="12"/>
       <c r="AJ26" s="15"/>
-    </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A27" s="33" t="s">
-        <v>37</v>
+      <c r="AM26" s="15"/>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A27" s="27" t="s">
+        <v>41</v>
       </c>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -1979,14 +2075,14 @@
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="23"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="55"/>
       <c r="J27" s="13"/>
       <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="59"/>
+      <c r="N27" s="59"/>
+      <c r="O27" s="55"/>
       <c r="P27" s="13"/>
       <c r="Q27" s="13"/>
       <c r="R27" s="13"/>
@@ -1995,23 +2091,25 @@
       <c r="U27" s="13"/>
       <c r="V27" s="13"/>
       <c r="W27" s="13"/>
-      <c r="X27" s="13"/>
-      <c r="Y27" s="22"/>
-      <c r="Z27" s="16"/>
-      <c r="AA27" s="19"/>
-      <c r="AB27" s="19"/>
-      <c r="AC27" s="19"/>
-      <c r="AD27" s="13"/>
-      <c r="AE27" s="12"/>
-      <c r="AF27" s="56"/>
-      <c r="AG27" s="13"/>
-      <c r="AH27" s="19"/>
-      <c r="AI27" s="19"/>
-      <c r="AJ27" s="34"/>
-    </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="X27" s="15"/>
+      <c r="Y27" s="32"/>
+      <c r="AA27" s="48"/>
+      <c r="AB27" s="49"/>
+      <c r="AC27" s="49"/>
+      <c r="AD27" s="49"/>
+      <c r="AE27" s="49"/>
+      <c r="AF27" s="49"/>
+      <c r="AG27" s="49"/>
+      <c r="AH27" s="49"/>
+      <c r="AI27" s="12"/>
+      <c r="AJ27" s="12"/>
+      <c r="AK27" s="19"/>
+      <c r="AL27" s="19"/>
+      <c r="AM27" s="28"/>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -2019,14 +2117,14 @@
       <c r="E28" s="10"/>
       <c r="F28" s="9"/>
       <c r="G28" s="11"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="23"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="55"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="59"/>
+      <c r="N28" s="59"/>
+      <c r="O28" s="55"/>
       <c r="P28" s="10"/>
       <c r="Q28" s="10"/>
       <c r="R28" s="10"/>
@@ -2036,22 +2134,25 @@
       <c r="V28" s="10"/>
       <c r="W28" s="10"/>
       <c r="X28" s="10"/>
-      <c r="Y28" s="38"/>
+      <c r="Y28" s="32"/>
       <c r="Z28" s="10"/>
-      <c r="AA28" s="54"/>
-      <c r="AB28" s="54"/>
-      <c r="AC28" s="54"/>
+      <c r="AA28" s="10"/>
+      <c r="AB28" s="10"/>
+      <c r="AC28" s="10"/>
       <c r="AD28" s="10"/>
-      <c r="AE28" s="10"/>
-      <c r="AF28" s="10"/>
-      <c r="AG28" s="10"/>
-      <c r="AH28" s="55"/>
-      <c r="AI28" s="55"/>
-      <c r="AJ28" s="52"/>
-    </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A29" s="33" t="s">
-        <v>25</v>
+      <c r="AE28" s="45"/>
+      <c r="AF28" s="45"/>
+      <c r="AG28" s="45"/>
+      <c r="AH28" s="10"/>
+      <c r="AI28" s="10"/>
+      <c r="AJ28" s="10"/>
+      <c r="AK28" s="46"/>
+      <c r="AL28" s="46"/>
+      <c r="AM28" s="44"/>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A29" s="27" t="s">
+        <v>18</v>
       </c>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
@@ -2059,14 +2160,14 @@
       <c r="E29" s="13"/>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="23"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="55"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="59"/>
+      <c r="N29" s="59"/>
+      <c r="O29" s="55"/>
       <c r="P29" s="12"/>
       <c r="Q29" s="12"/>
       <c r="R29" s="12"/>
@@ -2076,7 +2177,7 @@
       <c r="V29" s="12"/>
       <c r="W29" s="12"/>
       <c r="X29" s="12"/>
-      <c r="Y29" s="38"/>
+      <c r="Y29" s="32"/>
       <c r="Z29" s="12"/>
       <c r="AA29" s="12"/>
       <c r="AB29" s="12"/>
@@ -2087,13 +2188,16 @@
       <c r="AG29" s="12"/>
       <c r="AH29" s="12"/>
       <c r="AI29" s="12"/>
-      <c r="AJ29" s="40" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A30" s="36" t="s">
-        <v>26</v>
+      <c r="AJ29" s="12"/>
+      <c r="AK29" s="12"/>
+      <c r="AL29" s="12"/>
+      <c r="AM29" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A30" s="30" t="s">
+        <v>19</v>
       </c>
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
@@ -2101,14 +2205,14 @@
       <c r="E30" s="19"/>
       <c r="F30" s="19"/>
       <c r="G30" s="19"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="25"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="57"/>
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="60"/>
+      <c r="N30" s="60"/>
+      <c r="O30" s="57"/>
       <c r="P30" s="19"/>
       <c r="Q30" s="19"/>
       <c r="R30" s="19"/>
@@ -2118,7 +2222,7 @@
       <c r="V30" s="19"/>
       <c r="W30" s="19"/>
       <c r="X30" s="19"/>
-      <c r="Y30" s="39"/>
+      <c r="Y30" s="33"/>
       <c r="Z30" s="19"/>
       <c r="AA30" s="19"/>
       <c r="AB30" s="19"/>
@@ -2127,14 +2231,21 @@
       <c r="AE30" s="19"/>
       <c r="AF30" s="19"/>
       <c r="AG30" s="19"/>
-      <c r="AH30" s="30"/>
-      <c r="AI30" s="30"/>
-      <c r="AJ30" s="41" t="s">
-        <v>28</v>
+      <c r="AH30" s="19"/>
+      <c r="AI30" s="19"/>
+      <c r="AJ30" s="19"/>
+      <c r="AK30" s="25"/>
+      <c r="AL30" s="25"/>
+      <c r="AM30" s="35" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="11">
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="H4:I30"/>
+    <mergeCell ref="L4:O30"/>
+    <mergeCell ref="AJ1:AM1"/>
     <mergeCell ref="W1:Z1"/>
     <mergeCell ref="AA1:AE1"/>
     <mergeCell ref="B1:E1"/>
@@ -2142,7 +2253,6 @@
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="N1:R1"/>
     <mergeCell ref="S1:V1"/>
-    <mergeCell ref="AF1:AI1"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remy\Documents\GitHub\Thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/remykabel/git/Thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A02D6472-85C3-41C4-8AD6-4C86CC59B5C2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A38B4320-7755-2C4B-B737-A88D1AB694EB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2775" yWindow="1560" windowWidth="28035" windowHeight="17445" xr2:uid="{4DCDC786-B4F5-3842-838A-FD9CE20DE2DE}"/>
+    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{4DCDC786-B4F5-3842-838A-FD9CE20DE2DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>April</t>
   </si>
@@ -151,13 +152,22 @@
   </si>
   <si>
     <t>User testing</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Deadlines</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -406,7 +416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -481,10 +491,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -514,12 +529,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -535,9 +547,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -575,7 +587,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -681,7 +693,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -834,81 +846,81 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AM30"/>
+  <dimension ref="A1:AM31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AM22" sqref="AM22"/>
+      <selection activeCell="AI32" sqref="AI32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="51.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="30" width="3.125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="3.125" customWidth="1"/>
-    <col min="32" max="32" width="3.125" bestFit="1" customWidth="1"/>
-    <col min="33" max="39" width="3.125" customWidth="1"/>
+    <col min="1" max="1" width="51.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="30" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="3.1640625" customWidth="1"/>
+    <col min="32" max="32" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="39" width="3.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" s="1" customFormat="1">
       <c r="A1" s="5"/>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50" t="s">
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50" t="s">
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50" t="s">
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50" t="s">
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50" t="s">
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50" t="s">
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="50" t="s">
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="56"/>
+      <c r="AF1" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="50"/>
-      <c r="AI1" s="50"/>
-      <c r="AJ1" s="50" t="s">
+      <c r="AG1" s="56"/>
+      <c r="AH1" s="56"/>
+      <c r="AI1" s="56"/>
+      <c r="AJ1" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="AK1" s="50"/>
-      <c r="AL1" s="50"/>
-      <c r="AM1" s="50"/>
-    </row>
-    <row r="2" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AK1" s="56"/>
+      <c r="AL1" s="56"/>
+      <c r="AM1" s="56"/>
+    </row>
+    <row r="2" spans="1:39" s="1" customFormat="1">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -1027,7 +1039,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" s="1" customFormat="1">
       <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
@@ -1146,7 +1158,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" ht="15.75" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
@@ -1156,18 +1168,18 @@
       <c r="E4" s="11"/>
       <c r="F4" s="22"/>
       <c r="G4" s="23"/>
-      <c r="H4" s="52" t="s">
+      <c r="H4" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="53"/>
+      <c r="I4" s="58"/>
       <c r="J4" s="23"/>
       <c r="K4" s="23"/>
-      <c r="L4" s="52" t="s">
+      <c r="L4" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="53"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="58"/>
       <c r="P4" s="23"/>
       <c r="Q4" s="23"/>
       <c r="R4" s="23"/>
@@ -1177,7 +1189,7 @@
       <c r="V4" s="23"/>
       <c r="W4" s="23"/>
       <c r="X4" s="23"/>
-      <c r="Y4" s="61"/>
+      <c r="Y4" s="50"/>
       <c r="Z4" s="22"/>
       <c r="AA4" s="23"/>
       <c r="AB4" s="23"/>
@@ -1191,7 +1203,7 @@
       <c r="AJ4" s="24"/>
       <c r="AM4" s="24"/>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39">
       <c r="A5" s="26" t="s">
         <v>13</v>
       </c>
@@ -1201,14 +1213,14 @@
       <c r="E5" s="15"/>
       <c r="F5" s="16"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="55"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="60"/>
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="55"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="60"/>
       <c r="P5" s="13"/>
       <c r="Q5" s="13"/>
       <c r="R5" s="13"/>
@@ -1232,7 +1244,7 @@
       <c r="AJ5" s="15"/>
       <c r="AM5" s="15"/>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39">
       <c r="A6" s="26" t="s">
         <v>10</v>
       </c>
@@ -1242,14 +1254,14 @@
       <c r="E6" s="15"/>
       <c r="F6" s="16"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="55"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="60"/>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="55"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="60"/>
       <c r="P6" s="13"/>
       <c r="Q6" s="13"/>
       <c r="R6" s="13"/>
@@ -1273,7 +1285,7 @@
       <c r="AJ6" s="15"/>
       <c r="AM6" s="15"/>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39">
       <c r="A7" s="26" t="s">
         <v>11</v>
       </c>
@@ -1283,14 +1295,14 @@
       <c r="E7" s="17"/>
       <c r="F7" s="16"/>
       <c r="G7" s="13"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="55"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="60"/>
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="55"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="60"/>
       <c r="P7" s="13"/>
       <c r="Q7" s="13"/>
       <c r="R7" s="13"/>
@@ -1314,7 +1326,7 @@
       <c r="AJ7" s="15"/>
       <c r="AM7" s="15"/>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39">
       <c r="A8" s="26" t="s">
         <v>12</v>
       </c>
@@ -1324,14 +1336,14 @@
       <c r="E8" s="37"/>
       <c r="F8" s="39"/>
       <c r="G8" s="13"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="55"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="60"/>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="55"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="64"/>
+      <c r="O8" s="60"/>
       <c r="P8" s="13"/>
       <c r="Q8" s="13"/>
       <c r="R8" s="13"/>
@@ -1355,7 +1367,7 @@
       <c r="AJ8" s="15"/>
       <c r="AM8" s="15"/>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39">
       <c r="A9" s="26" t="s">
         <v>26</v>
       </c>
@@ -1365,14 +1377,14 @@
       <c r="E9" s="31"/>
       <c r="F9" s="14"/>
       <c r="G9" s="12"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="55"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="60"/>
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="55"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="60"/>
       <c r="P9" s="13"/>
       <c r="Q9" s="19"/>
       <c r="R9" s="19"/>
@@ -1396,7 +1408,7 @@
       <c r="AJ9" s="15"/>
       <c r="AM9" s="15"/>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39">
       <c r="A10" s="8" t="s">
         <v>14</v>
       </c>
@@ -1406,14 +1418,14 @@
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="55"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="60"/>
       <c r="J10" s="9"/>
       <c r="K10" s="10"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="55"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="60"/>
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
       <c r="R10" s="10"/>
@@ -1437,7 +1449,7 @@
       <c r="AJ10" s="15"/>
       <c r="AM10" s="15"/>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39">
       <c r="A11" s="26" t="s">
         <v>15</v>
       </c>
@@ -1447,14 +1459,14 @@
       <c r="E11" s="23"/>
       <c r="F11" s="40"/>
       <c r="G11" s="41"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="55"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="60"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="55"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="64"/>
+      <c r="O11" s="60"/>
       <c r="P11" s="12"/>
       <c r="Q11" s="12"/>
       <c r="R11" s="23"/>
@@ -1478,7 +1490,7 @@
       <c r="AJ11" s="15"/>
       <c r="AM11" s="15"/>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39">
       <c r="A12" s="26" t="s">
         <v>23</v>
       </c>
@@ -1488,14 +1500,14 @@
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="15"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="55"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="60"/>
       <c r="J12" s="13"/>
       <c r="K12" s="21"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="55"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="60"/>
       <c r="P12" s="12"/>
       <c r="Q12" s="12"/>
       <c r="R12" s="21"/>
@@ -1519,7 +1531,7 @@
       <c r="AJ12" s="15"/>
       <c r="AM12" s="15"/>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39">
       <c r="A13" s="26" t="s">
         <v>29</v>
       </c>
@@ -1529,14 +1541,14 @@
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="15"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="55"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="60"/>
       <c r="J13" s="13"/>
       <c r="K13" s="21"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="55"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="60"/>
       <c r="P13" s="21"/>
       <c r="Q13" s="21"/>
       <c r="R13" s="12"/>
@@ -1560,7 +1572,7 @@
       <c r="AJ13" s="15"/>
       <c r="AM13" s="15"/>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39">
       <c r="A14" s="26" t="s">
         <v>30</v>
       </c>
@@ -1570,14 +1582,14 @@
       <c r="E14" s="13"/>
       <c r="F14" s="19"/>
       <c r="G14" s="28"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="55"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="60"/>
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="55"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="60"/>
       <c r="P14" s="42"/>
       <c r="S14" s="43"/>
       <c r="T14" s="43"/>
@@ -1599,7 +1611,7 @@
       <c r="AJ14" s="15"/>
       <c r="AM14" s="15"/>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39">
       <c r="A15" s="8" t="s">
         <v>24</v>
       </c>
@@ -1609,14 +1621,14 @@
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="55"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="60"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="55"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="60"/>
       <c r="P15" s="10"/>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
@@ -1640,7 +1652,7 @@
       <c r="AJ15" s="15"/>
       <c r="AM15" s="15"/>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39">
       <c r="A16" s="26" t="s">
         <v>31</v>
       </c>
@@ -1650,14 +1662,14 @@
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="55"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="60"/>
       <c r="J16" s="13"/>
       <c r="K16" s="13"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="55"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="60"/>
       <c r="P16" s="13"/>
       <c r="T16" s="12"/>
       <c r="V16" s="13"/>
@@ -1677,7 +1689,7 @@
       <c r="AJ16" s="15"/>
       <c r="AM16" s="15"/>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39">
       <c r="A17" s="26" t="s">
         <v>32</v>
       </c>
@@ -1687,14 +1699,14 @@
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="55"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="60"/>
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="55"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="64"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="60"/>
       <c r="P17" s="13"/>
       <c r="U17" s="12"/>
       <c r="V17" s="12"/>
@@ -1714,7 +1726,7 @@
       <c r="AJ17" s="15"/>
       <c r="AM17" s="15"/>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39">
       <c r="A18" s="26" t="s">
         <v>33</v>
       </c>
@@ -1724,14 +1736,14 @@
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="55"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="60"/>
       <c r="J18" s="13"/>
       <c r="K18" s="13"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="55"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="64"/>
+      <c r="O18" s="60"/>
       <c r="P18" s="13"/>
       <c r="U18" s="13"/>
       <c r="W18" s="12"/>
@@ -1750,7 +1762,7 @@
       <c r="AJ18" s="15"/>
       <c r="AM18" s="15"/>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39">
       <c r="A19" s="26" t="s">
         <v>35</v>
       </c>
@@ -1760,20 +1772,20 @@
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="55"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="60"/>
       <c r="J19" s="13"/>
       <c r="K19" s="13"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="55"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="60"/>
       <c r="P19" s="13"/>
       <c r="U19" s="13"/>
       <c r="Y19" s="32"/>
       <c r="Z19" s="12"/>
-      <c r="AA19" s="62"/>
-      <c r="AB19" s="63"/>
+      <c r="AA19" s="51"/>
+      <c r="AB19" s="52"/>
       <c r="AC19" s="17"/>
       <c r="AD19" s="13"/>
       <c r="AE19" s="15"/>
@@ -1784,7 +1796,7 @@
       <c r="AJ19" s="15"/>
       <c r="AM19" s="15"/>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39">
       <c r="A20" s="26" t="s">
         <v>34</v>
       </c>
@@ -1794,14 +1806,14 @@
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="55"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="60"/>
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="55"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="64"/>
+      <c r="O20" s="60"/>
       <c r="P20" s="13"/>
       <c r="U20" s="13"/>
       <c r="V20" s="13"/>
@@ -1818,7 +1830,7 @@
       <c r="AJ20" s="15"/>
       <c r="AM20" s="15"/>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39">
       <c r="A21" s="8" t="s">
         <v>36</v>
       </c>
@@ -1828,14 +1840,14 @@
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="55"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="60"/>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="59"/>
-      <c r="O21" s="55"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="64"/>
+      <c r="N21" s="64"/>
+      <c r="O21" s="60"/>
       <c r="P21" s="10"/>
       <c r="Q21" s="10"/>
       <c r="R21" s="10"/>
@@ -1859,7 +1871,7 @@
       <c r="AJ21" s="15"/>
       <c r="AM21" s="15"/>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39">
       <c r="A22" s="29" t="s">
         <v>16</v>
       </c>
@@ -1869,14 +1881,14 @@
       <c r="E22" s="23"/>
       <c r="F22" s="23"/>
       <c r="G22" s="24"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="55"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="60"/>
       <c r="J22" s="22"/>
       <c r="K22" s="23"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="59"/>
-      <c r="O22" s="55"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="64"/>
+      <c r="O22" s="60"/>
       <c r="P22" s="23"/>
       <c r="Q22" s="23"/>
       <c r="R22" s="23"/>
@@ -1884,12 +1896,12 @@
       <c r="T22" s="23"/>
       <c r="U22" s="23"/>
       <c r="V22" s="12"/>
-      <c r="W22" s="62"/>
-      <c r="X22" s="63"/>
+      <c r="W22" s="51"/>
+      <c r="X22" s="52"/>
       <c r="Y22" s="32"/>
       <c r="Z22" s="14"/>
-      <c r="AA22" s="62"/>
-      <c r="AB22" s="63"/>
+      <c r="AA22" s="51"/>
+      <c r="AB22" s="52"/>
       <c r="AC22" s="12"/>
       <c r="AD22" s="12"/>
       <c r="AE22" s="15"/>
@@ -1900,7 +1912,7 @@
       <c r="AJ22" s="15"/>
       <c r="AM22" s="15"/>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39">
       <c r="A23" s="30" t="s">
         <v>37</v>
       </c>
@@ -1910,14 +1922,14 @@
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
       <c r="G23" s="28"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="55"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="60"/>
       <c r="J23" s="16"/>
       <c r="K23" s="13"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="59"/>
-      <c r="N23" s="59"/>
-      <c r="O23" s="55"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="64"/>
+      <c r="N23" s="64"/>
+      <c r="O23" s="60"/>
       <c r="P23" s="13"/>
       <c r="Q23" s="13"/>
       <c r="R23" s="13"/>
@@ -1942,7 +1954,7 @@
       <c r="AK23" s="13"/>
       <c r="AM23" s="15"/>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39">
       <c r="A24" s="8" t="s">
         <v>38</v>
       </c>
@@ -1952,14 +1964,14 @@
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
       <c r="G24" s="11"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="55"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="60"/>
       <c r="J24" s="9"/>
       <c r="K24" s="10"/>
-      <c r="L24" s="54"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="59"/>
-      <c r="O24" s="55"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="64"/>
+      <c r="O24" s="60"/>
       <c r="P24" s="10"/>
       <c r="Q24" s="10"/>
       <c r="R24" s="10"/>
@@ -1984,7 +1996,7 @@
       <c r="AK24" s="13"/>
       <c r="AM24" s="15"/>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39">
       <c r="A25" s="29" t="s">
         <v>39</v>
       </c>
@@ -1994,14 +2006,14 @@
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="55"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="60"/>
       <c r="J25" s="13"/>
       <c r="K25" s="13"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="59"/>
-      <c r="N25" s="59"/>
-      <c r="O25" s="55"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="64"/>
+      <c r="N25" s="64"/>
+      <c r="O25" s="60"/>
       <c r="P25" s="13"/>
       <c r="Q25" s="13"/>
       <c r="R25" s="13"/>
@@ -2024,7 +2036,7 @@
       <c r="AK25" s="13"/>
       <c r="AM25" s="15"/>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39">
       <c r="A26" s="27" t="s">
         <v>40</v>
       </c>
@@ -2034,14 +2046,14 @@
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="55"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="60"/>
       <c r="J26" s="13"/>
       <c r="K26" s="13"/>
-      <c r="L26" s="54"/>
-      <c r="M26" s="59"/>
-      <c r="N26" s="59"/>
-      <c r="O26" s="55"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="64"/>
+      <c r="N26" s="64"/>
+      <c r="O26" s="60"/>
       <c r="P26" s="13"/>
       <c r="Q26" s="13"/>
       <c r="R26" s="13"/>
@@ -2065,7 +2077,7 @@
       <c r="AJ26" s="15"/>
       <c r="AM26" s="15"/>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39">
       <c r="A27" s="27" t="s">
         <v>41</v>
       </c>
@@ -2075,14 +2087,14 @@
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="55"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="60"/>
       <c r="J27" s="13"/>
       <c r="K27" s="13"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="59"/>
-      <c r="N27" s="59"/>
-      <c r="O27" s="55"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="64"/>
+      <c r="N27" s="64"/>
+      <c r="O27" s="60"/>
       <c r="P27" s="13"/>
       <c r="Q27" s="13"/>
       <c r="R27" s="13"/>
@@ -2107,7 +2119,7 @@
       <c r="AL27" s="19"/>
       <c r="AM27" s="28"/>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39">
       <c r="A28" s="8" t="s">
         <v>17</v>
       </c>
@@ -2117,14 +2129,14 @@
       <c r="E28" s="10"/>
       <c r="F28" s="9"/>
       <c r="G28" s="11"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="55"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="60"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
-      <c r="L28" s="54"/>
-      <c r="M28" s="59"/>
-      <c r="N28" s="59"/>
-      <c r="O28" s="55"/>
+      <c r="L28" s="59"/>
+      <c r="M28" s="64"/>
+      <c r="N28" s="64"/>
+      <c r="O28" s="60"/>
       <c r="P28" s="10"/>
       <c r="Q28" s="10"/>
       <c r="R28" s="10"/>
@@ -2150,7 +2162,7 @@
       <c r="AL28" s="46"/>
       <c r="AM28" s="44"/>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:39">
       <c r="A29" s="27" t="s">
         <v>18</v>
       </c>
@@ -2160,14 +2172,14 @@
       <c r="E29" s="13"/>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="55"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="60"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
-      <c r="L29" s="54"/>
-      <c r="M29" s="59"/>
-      <c r="N29" s="59"/>
-      <c r="O29" s="55"/>
+      <c r="L29" s="59"/>
+      <c r="M29" s="64"/>
+      <c r="N29" s="64"/>
+      <c r="O29" s="60"/>
       <c r="P29" s="12"/>
       <c r="Q29" s="12"/>
       <c r="R29" s="12"/>
@@ -2195,7 +2207,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39">
       <c r="A30" s="30" t="s">
         <v>19</v>
       </c>
@@ -2205,14 +2217,14 @@
       <c r="E30" s="19"/>
       <c r="F30" s="19"/>
       <c r="G30" s="19"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="57"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="62"/>
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
-      <c r="L30" s="56"/>
-      <c r="M30" s="60"/>
-      <c r="N30" s="60"/>
-      <c r="O30" s="57"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="65"/>
+      <c r="N30" s="65"/>
+      <c r="O30" s="62"/>
       <c r="P30" s="19"/>
       <c r="Q30" s="19"/>
       <c r="R30" s="19"/>
@@ -2240,6 +2252,53 @@
         <v>21</v>
       </c>
     </row>
+    <row r="31" spans="1:39">
+      <c r="A31" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="46"/>
+      <c r="O31" s="46"/>
+      <c r="P31" s="46"/>
+      <c r="Q31" s="46"/>
+      <c r="R31" s="46"/>
+      <c r="S31" s="46"/>
+      <c r="T31" s="46"/>
+      <c r="U31" s="46"/>
+      <c r="V31" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="W31" s="46"/>
+      <c r="X31" s="46"/>
+      <c r="Y31" s="46"/>
+      <c r="Z31" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA31" s="46"/>
+      <c r="AB31" s="46"/>
+      <c r="AC31" s="46"/>
+      <c r="AD31" s="46"/>
+      <c r="AE31" s="46"/>
+      <c r="AF31" s="46"/>
+      <c r="AG31" s="46"/>
+      <c r="AH31" s="46"/>
+      <c r="AI31" s="46"/>
+      <c r="AJ31" s="46"/>
+      <c r="AK31" s="46"/>
+      <c r="AL31" s="46"/>
+      <c r="AM31" s="46"/>
+    </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="AF1:AI1"/>
